--- a/medicine/Psychotrope/Soma_(drogue_fictive)/Soma_(drogue_fictive).xlsx
+++ b/medicine/Psychotrope/Soma_(drogue_fictive)/Soma_(drogue_fictive).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le soma est, dans le roman dystopique Le Meilleur des Mondes d'Aldous Huxley, une drogue artificielle de synthèse présentée au peuple comme étant un simple médicament.
 Les citoyens sont tous incités à utiliser ce produit qui peut, à forte dose, plonger celui qui en prend dans un sommeil paradisiaque.
@@ -489,7 +501,7 @@
 Son effet et sa prise à répétition par les divers personnages du roman est un ressort essentiel au maintien de l'univers créé par Huxley. Il introduit une dimension d'habitude sociale liée à l'éducation, consommer cette drogue est un recours indispensable aux utilisateurs pour lutter contre les maux de la vie en société, elle a pour effet de remplacer la cigarette ou l'alcool de notre monde réel.
 Les individus de toutes les castes se satisfont de leur statut par le double usage du conditionnement hypnopédique et du soma. 
 Le thème de l'altération de la perception et de la drogue comme moyen de fermeture ou d'éveil pour l'esprit sera plus tard important dans la vie et l'oeuvre de l'auteur ; le soma n'est pas sans rappeler la mescaline, expérimentée par Huxley, expérience qui sera à l'origine de l'essai Les Portes de la perception (1954).  
-Étrangement au cours des années 1950, un produit hypnotique sera commercialisé sous le nom de Soma : le carisoprodol, un analogue de la méprobamate[1],[2]. La classe des carbamates dont il fait partie se voit progressivement retirée des marchés du fait d'un potentiel d'abus et de surdosage excessif[3].  
+Étrangement au cours des années 1950, un produit hypnotique sera commercialisé sous le nom de Soma : le carisoprodol, un analogue de la méprobamate,. La classe des carbamates dont il fait partie se voit progressivement retirée des marchés du fait d'un potentiel d'abus et de surdosage excessif.  
 </t>
         </is>
       </c>
